--- a/csv/Timetables rated.xlsx
+++ b/csv/Timetables rated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bolup\OneDrive\Documents\Projizzles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a9b5661b6c851ed/Documents/Projizzles/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8568FC7B-05AB-47D3-9AEE-E44B3F9AFABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8568FC7B-05AB-47D3-9AEE-E44B3F9AFABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B0D5B0A-1DFC-47CF-8785-F8DFA1C5DD1C}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7320" yWindow="-60" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timetables rated" sheetId="1" r:id="rId1"/>
@@ -1525,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,12 +1536,12 @@
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
@@ -4237,7 +4237,7 @@
         <v>12</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" si="10">D34/B34</f>
+        <f t="shared" ref="E34:E61" si="10">D34/B34</f>
         <v>2.4</v>
       </c>
       <c r="F34" s="1">
@@ -4249,7 +4249,7 @@
         <v>2.4</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H65" si="13">F34/G34</f>
+        <f t="shared" ref="H34:H61" si="13">F34/G34</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="I34">
@@ -4265,7 +4265,7 @@
         <v>3</v>
       </c>
       <c r="M34">
-        <f t="shared" ref="M34:M65" si="14">L34/5</f>
+        <f t="shared" ref="M34:M61" si="14">L34/5</f>
         <v>0.6</v>
       </c>
       <c r="N34">
@@ -4273,14 +4273,14 @@
         <v>1</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" ref="O34:O65" si="16">F34/N34</f>
+        <f t="shared" ref="O34:O61" si="16">F34/N34</f>
         <v>4</v>
       </c>
       <c r="P34" s="1">
         <v>4</v>
       </c>
       <c r="Q34">
-        <f t="shared" ref="Q34:Q65" si="17">((P34-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <f t="shared" ref="Q34:Q61" si="17">((P34-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
         <v>0.25</v>
       </c>
       <c r="R34" s="1">
@@ -4299,7 +4299,7 @@
         <v>49</v>
       </c>
       <c r="X34">
-        <f t="shared" ref="X34:X65" si="18">IF(W34="Bad",0,IF(W34="Bad-N",0,IF(W34="Good-N",1,IF(W34="Good",1,"bruhm"))))</f>
+        <f t="shared" ref="X34:X61" si="18">IF(W34="Bad",0,IF(W34="Bad-N",0,IF(W34="Good-N",1,IF(W34="Good",1,"bruhm"))))</f>
         <v>0</v>
       </c>
     </row>

--- a/csv/Timetables rated.xlsx
+++ b/csv/Timetables rated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a9b5661b6c851ed/Documents/Projizzles/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8568FC7B-05AB-47D3-9AEE-E44B3F9AFABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B0D5B0A-1DFC-47CF-8785-F8DFA1C5DD1C}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{8568FC7B-05AB-47D3-9AEE-E44B3F9AFABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56130578-E9D3-421B-99E3-1C8C1FE3394C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timetables rated" sheetId="1" r:id="rId1"/>
@@ -1149,11 +1149,15 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:Y62" totalsRowCount="1">
   <autoFilter ref="A1:Y61" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y61">
-    <sortCondition ref="A1:A61"/>
+    <sortCondition ref="P1:P61"/>
   </sortState>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Table"/>
@@ -1525,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,250 +1640,249 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">D2/B2</f>
-        <v>2.5555555555555554</v>
+        <f>D2/B2</f>
+        <v>2.1666666666666665</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F33" si="1">D2/(5-C2)</f>
-        <v>4.5999999999999996</v>
+        <f>D2/(5-C2)</f>
+        <v>2.6</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G33" si="2">D2/5</f>
-        <v>4.5999999999999996</v>
+        <f>D2/5</f>
+        <v>2.6</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H33" si="3">F2/G2</f>
+        <f>F2/G2</f>
         <v>1</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="L2" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M33" si="4">L2/5</f>
-        <v>2</v>
+        <f>L2/5</f>
+        <v>1.4</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N33" si="5">L2/(5-C2)</f>
-        <v>2</v>
+        <f>L2/(5-C2)</f>
+        <v>1.4</v>
       </c>
       <c r="O2" s="1">
-        <f t="shared" ref="O2:O33" si="6">F2/N2</f>
-        <v>2.2999999999999998</v>
+        <f>F2/N2</f>
+        <v>1.8571428571428574</v>
       </c>
       <c r="P2" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q33" si="7">((P2-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
-        <v>0.25</v>
+        <f>((P2-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U2" s="1">
         <f>S2/T2</f>
-        <v>1.6666666666666667</v>
+        <v>2</v>
       </c>
       <c r="W2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="X2:X33" si="8">IF(W2="Bad",0,IF(W2="Bad-N",0,IF(W2="Good-N",1,IF(W2="Good",1,"bruhm"))))</f>
-        <v>0</v>
+        <f>IF(W2="Bad",0,IF(W2="Bad-N",0,IF(W2="Good-N",1,IF(W2="Good",1,"bruhm"))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
+        <f>D3/B3</f>
+        <v>2.4</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" si="1"/>
-        <v>4.5999999999999996</v>
+        <f>D3/(5-C3)</f>
+        <v>2.4</v>
       </c>
       <c r="G3">
-        <f t="shared" si="2"/>
-        <v>4.5999999999999996</v>
+        <f>D3/5</f>
+        <v>2.4</v>
       </c>
       <c r="H3">
-        <f t="shared" si="3"/>
+        <f>F3/G3</f>
         <v>1</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
       </c>
       <c r="L3" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <f t="shared" si="4"/>
-        <v>1.8</v>
+        <f>L3/5</f>
+        <v>1</v>
       </c>
       <c r="N3">
-        <f t="shared" si="5"/>
-        <v>1.8</v>
+        <f>L3/(5-C3)</f>
+        <v>1</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" si="6"/>
-        <v>2.5555555555555554</v>
+        <f>F3/N3</f>
+        <v>2.4</v>
       </c>
       <c r="P3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
+        <f>((P3-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>6.25E-2</v>
       </c>
       <c r="R3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <f>S3/T3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="X3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(W3="Bad",0,IF(W3="Bad-N",0,IF(W3="Good-N",1,IF(W3="Good",1,"bruhm"))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>2.2857142857142856</v>
+        <f>D4/B4</f>
+        <v>2.4</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>D4/(5-C4)</f>
+        <v>2.4</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
-        <v>3.2</v>
+        <f>D4/5</f>
+        <v>2.4</v>
       </c>
       <c r="H4">
-        <f t="shared" si="3"/>
-        <v>1.25</v>
+        <f>F4/G4</f>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>6</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
+        <f>L4/5</f>
+        <v>1</v>
       </c>
       <c r="N4">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f>L4/(5-C4)</f>
+        <v>1</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="6"/>
-        <v>2.6666666666666665</v>
+        <f>F4/N4</f>
+        <v>2.4</v>
       </c>
       <c r="P4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
+        <f>((P4-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>6.25E-2</v>
       </c>
       <c r="R4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <v>2</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U4" s="1">
         <f>S4/T4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="X4">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(W4="Bad",0,IF(W4="Bad-N",0,IF(W4="Good-N",1,IF(W4="Good",1,"bruhm"))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1891,561 +1894,562 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>D5/B5</f>
         <v>2.4</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="1"/>
+        <f>D5/(5-C5)</f>
         <v>3</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f>D5/5</f>
         <v>2.4</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
+        <f>F5/G5</f>
         <v>1.25</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
+        <f>L5/5</f>
+        <v>1</v>
       </c>
       <c r="N5">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>L5/(5-C5)</f>
+        <v>1.25</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>F5/N5</f>
+        <v>2.4</v>
       </c>
       <c r="P5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
+        <f>((P5-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>6.25E-2</v>
       </c>
       <c r="R5" s="1">
         <v>1</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5" s="1">
         <f>S5/T5</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="s">
         <v>31</v>
       </c>
       <c r="X5">
-        <f t="shared" si="8"/>
+        <f>IF(W5="Bad",0,IF(W5="Bad-N",0,IF(W5="Good-N",1,IF(W5="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>12</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>D6/B6</f>
         <v>2.4</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
+        <f>D6/(5-C6)</f>
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f>D6/5</f>
         <v>2.4</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
+      <c r="H6">
+        <f>F6/G6</f>
+        <v>1.25</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <f>L6/5</f>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f>L6/(5-C6)</f>
+        <v>1.25</v>
+      </c>
+      <c r="O6" s="1">
+        <f>F6/N6</f>
         <v>2.4</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="6"/>
-        <v>2.4</v>
-      </c>
       <c r="P6" s="1">
         <v>3</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="7"/>
+        <f>((P6-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
         <v>6.25E-2</v>
       </c>
       <c r="R6" s="1">
         <v>1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U6" s="1">
-        <v>0</v>
+        <f>S6/T6</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="W6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="X6">
-        <f t="shared" si="8"/>
+        <f>IF(W6="Bad",0,IF(W6="Bad-N",0,IF(W6="Good-N",1,IF(W6="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>12</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>D7/B7</f>
         <v>2.4</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="1"/>
+        <f>D7/(5-C7)</f>
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <f>D7/5</f>
         <v>2.4</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
+      <c r="H7">
+        <f>F7/G7</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="3">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <f>L7/5</f>
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <f>L7/(5-C7)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="O7" s="1">
+        <f>F7/N7</f>
         <v>2.4</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="6"/>
-        <v>2.4</v>
-      </c>
       <c r="P7" s="1">
         <v>3</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="7"/>
+        <f>((P7-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
         <v>6.25E-2</v>
       </c>
       <c r="R7" s="1">
         <v>1</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" ref="U7:U31" si="9">S7/T7</f>
-        <v>2</v>
+        <f>S7/T7</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="W7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="X7">
-        <f t="shared" si="8"/>
+        <f>IF(W7="Bad",0,IF(W7="Bad-N",0,IF(W7="Good-N",1,IF(W7="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
+        <f>D8/B8</f>
+        <v>2.4</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="1"/>
-        <v>2.8</v>
+        <f>D8/(5-C8)</f>
+        <v>3</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
-        <v>2.8</v>
+        <f>D8/5</f>
+        <v>2.4</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>F8/G8</f>
+        <v>1.25</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" s="3">
         <v>5</v>
       </c>
       <c r="M8">
-        <f t="shared" si="4"/>
+        <f>L8/5</f>
         <v>1</v>
       </c>
       <c r="N8">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>L8/(5-C8)</f>
+        <v>1.25</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="6"/>
-        <v>2.8</v>
+        <f>F8/N8</f>
+        <v>2.4</v>
       </c>
       <c r="P8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
+        <f>((P8-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>6.25E-2</v>
       </c>
       <c r="R8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f>S8/T8</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="W8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="X8">
-        <f t="shared" si="8"/>
+        <f>IF(W8="Bad",0,IF(W8="Bad-N",0,IF(W8="Good-N",1,IF(W8="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>2.3636363636363638</v>
+        <f>D9/B9</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2</v>
+        <f>D9/(5-C9)</f>
+        <v>3.5</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
-        <v>5.2</v>
+        <f>D9/5</f>
+        <v>2.8</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>F9/G9</f>
+        <v>1.25</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="3">
         <v>6</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="3">
-        <v>10</v>
-      </c>
       <c r="M9">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>L9/5</f>
+        <v>1.2</v>
       </c>
       <c r="N9">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>L9/(5-C9)</f>
+        <v>1.5</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="6"/>
-        <v>2.6</v>
+        <f>F9/N9</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="P9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
+        <f>((P9-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>6.25E-2</v>
       </c>
       <c r="R9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="9"/>
-        <v>1.75</v>
+        <f>S9/T9</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="W9" t="s">
         <v>26</v>
       </c>
       <c r="X9">
-        <f t="shared" si="8"/>
+        <f>IF(W9="Bad",0,IF(W9="Bad-N",0,IF(W9="Good-N",1,IF(W9="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <f>D10/B10</f>
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="1">
+        <f>D10/(5-C10)</f>
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <f>D10/5</f>
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <f>F10/G10</f>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1">
+        <v>6</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <f>L10/5</f>
+        <v>1.6</v>
+      </c>
+      <c r="N10">
+        <f>L10/(5-C10)</f>
+        <v>1.6</v>
+      </c>
+      <c r="O10" s="1">
+        <f>F10/N10</f>
+        <v>1.875</v>
+      </c>
+      <c r="P10" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <f>((P10-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="R10" s="1">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10" s="1">
+        <f>S10/T10</f>
+        <v>1.5</v>
+      </c>
+      <c r="W10" t="s">
         <v>23</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="1"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10" s="1">
-        <v>4</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" s="3">
-        <v>6</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-      <c r="O10" s="1">
-        <f t="shared" si="6"/>
-        <v>3.833333333333333</v>
-      </c>
-      <c r="P10" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
-      </c>
-      <c r="R10" s="1">
-        <v>5</v>
-      </c>
-      <c r="S10">
-        <v>3</v>
-      </c>
-      <c r="T10">
-        <v>3</v>
-      </c>
-      <c r="U10" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W10" t="s">
-        <v>49</v>
-      </c>
       <c r="X10">
-        <f t="shared" si="8"/>
+        <f>IF(W10="Bad",0,IF(W10="Bad-N",0,IF(W10="Good-N",1,IF(W10="Good",1,"bruhm"))))</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <f>D11/B11</f>
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="1">
+        <f>D11/(5-C11)</f>
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <f>D11/5</f>
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <f>F11/G11</f>
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="3">
         <v>8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>3.6</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>1.25</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3">
-        <v>5</v>
-      </c>
       <c r="M11">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>L11/5</f>
+        <v>1.6</v>
       </c>
       <c r="N11">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
+        <f>L11/(5-C11)</f>
+        <v>1.6</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="6"/>
-        <v>3.6</v>
+        <f>F11/N11</f>
+        <v>1.875</v>
       </c>
       <c r="P11" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>((P11-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>6.25E-2</v>
       </c>
       <c r="R11" s="1">
         <v>2</v>
       </c>
       <c r="S11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T11">
         <v>3</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <f>S11/T11</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="W11" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="X11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(W11="Bad",0,IF(W11="Bad-N",0,IF(W11="Good-N",1,IF(W11="Good",1,"bruhm"))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -2457,54 +2461,54 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>D12/B12</f>
         <v>2.4</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
+        <f>D12/(5-C12)</f>
         <v>3</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f>D12/5</f>
         <v>2.4</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f>F12/G12</f>
         <v>1.25</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="3">
         <v>5</v>
       </c>
       <c r="M12">
-        <f t="shared" si="4"/>
+        <f>L12/5</f>
         <v>1</v>
       </c>
       <c r="N12">
-        <f t="shared" si="5"/>
+        <f>L12/(5-C12)</f>
         <v>1.25</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="6"/>
+        <f>F12/N12</f>
         <v>2.4</v>
       </c>
       <c r="P12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
+        <f>((P12-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>6.25E-2</v>
       </c>
       <c r="R12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -2513,101 +2517,101 @@
         <v>1</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="9"/>
+        <f>S12/T12</f>
         <v>1</v>
       </c>
       <c r="W12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="X12">
-        <f t="shared" si="8"/>
+        <f>IF(W12="Bad",0,IF(W12="Bad-N",0,IF(W12="Good-N",1,IF(W12="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>D13/B13</f>
         <v>2.4</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>D13/(5-C13)</f>
+        <v>3</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f>D13/5</f>
         <v>2.4</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
-        <v>1.6666666666666667</v>
+        <f>F13/G13</f>
+        <v>1.25</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
+        <f>L13/5</f>
+        <v>1</v>
       </c>
       <c r="N13">
-        <f t="shared" si="5"/>
-        <v>1.3333333333333333</v>
+        <f>L13/(5-C13)</f>
+        <v>1.25</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>F13/N13</f>
+        <v>2.4</v>
       </c>
       <c r="P13" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
+        <f>((P13-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>6.25E-2</v>
       </c>
       <c r="R13" s="1">
         <v>1</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <v>2</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
+        <f>S13/T13</f>
+        <v>1</v>
       </c>
       <c r="W13" t="s">
         <v>26</v>
       </c>
       <c r="X13">
-        <f t="shared" si="8"/>
+        <f>IF(W13="Bad",0,IF(W13="Bad-N",0,IF(W13="Good-N",1,IF(W13="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -2619,51 +2623,51 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>D14/B14</f>
         <v>2.4</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="1"/>
+        <f>D14/(5-C14)</f>
         <v>3</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f>D14/5</f>
         <v>2.4</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
+        <f>F14/G14</f>
         <v>1.25</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>5</v>
       </c>
       <c r="M14">
-        <f t="shared" si="4"/>
+        <f>L14/5</f>
         <v>1</v>
       </c>
       <c r="N14">
-        <f t="shared" si="5"/>
+        <f>L14/(5-C14)</f>
         <v>1.25</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="6"/>
+        <f>F14/N14</f>
         <v>2.4</v>
       </c>
       <c r="P14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
+        <f>((P14-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>6.25E-2</v>
       </c>
       <c r="R14" s="1">
         <v>2</v>
@@ -2675,288 +2679,288 @@
         <v>1</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="9"/>
+        <f>S14/T14</f>
         <v>1</v>
       </c>
       <c r="W14" t="s">
         <v>26</v>
       </c>
       <c r="X14">
-        <f t="shared" si="8"/>
+        <f>IF(W14="Bad",0,IF(W14="Bad-N",0,IF(W14="Good-N",1,IF(W14="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
+        <f>D15/B15</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>D15/(5-C15)</f>
+        <v>3.5</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
-        <v>2.4</v>
+        <f>D15/5</f>
+        <v>2.8</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
+        <f>F15/G15</f>
         <v>1.25</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="L15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>L15/5</f>
+        <v>1.2</v>
       </c>
       <c r="N15">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
+        <f>L15/(5-C15)</f>
+        <v>1.5</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="6"/>
-        <v>2.4</v>
+        <f>F15/N15</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="P15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
+        <f>((P15-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>6.25E-2</v>
       </c>
       <c r="R15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T15">
         <v>2</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
+        <f>S15/T15</f>
+        <v>1</v>
       </c>
       <c r="W15" t="s">
         <v>26</v>
       </c>
       <c r="X15">
-        <f t="shared" si="8"/>
+        <f>IF(W15="Bad",0,IF(W15="Bad-N",0,IF(W15="Good-N",1,IF(W15="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>D16/B16</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="F16" s="2">
+        <f>D16/(5-C16)</f>
+        <v>3.5</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
-        <v>2.4</v>
+        <f>D16/5</f>
+        <v>2.8</v>
       </c>
       <c r="H16">
-        <f t="shared" si="3"/>
+        <f>F16/G16</f>
         <v>1.25</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="L16" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>L16/5</f>
+        <v>1.2</v>
       </c>
       <c r="N16">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
-      </c>
-      <c r="O16" s="1">
-        <f t="shared" si="6"/>
-        <v>2.4</v>
+        <f>L16/(5-C16)</f>
+        <v>1.5</v>
+      </c>
+      <c r="O16" s="2">
+        <f>F16/N16</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="P16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
+        <f>((P16-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>6.25E-2</v>
       </c>
       <c r="R16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16" s="1">
-        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="U16" s="2">
+        <f>S16/T16</f>
         <v>1</v>
       </c>
       <c r="W16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="X16">
-        <f t="shared" si="8"/>
+        <f>IF(W16="Bad",0,IF(W16="Bad-N",0,IF(W16="Good-N",1,IF(W16="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
+        <f>D17/B17</f>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="F17" s="2">
+        <f>D17/(5-C17)</f>
+        <v>4</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
-        <v>2.8</v>
+        <f>D17/5</f>
+        <v>3.2</v>
       </c>
       <c r="H17">
-        <f t="shared" si="3"/>
+        <f>F17/G17</f>
         <v>1.25</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="L17" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M17">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>L17/5</f>
+        <v>1.4</v>
       </c>
       <c r="N17">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" si="6"/>
-        <v>2.8</v>
+        <f>L17/(5-C17)</f>
+        <v>1.75</v>
+      </c>
+      <c r="O17" s="2">
+        <f>F17/N17</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="P17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
+        <f>((P17-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>6.25E-2</v>
       </c>
       <c r="R17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>3</v>
       </c>
       <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17" s="1">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
+        <v>3</v>
+      </c>
+      <c r="U17" s="2">
+        <f>S17/T17</f>
+        <v>1</v>
       </c>
       <c r="W17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="X17">
-        <f t="shared" si="8"/>
+        <f>IF(W17="Bad",0,IF(W17="Bad-N",0,IF(W17="Good-N",1,IF(W17="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
+        <f>D18/B18</f>
+        <v>2.25</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="1"/>
+        <f>D18/(5-C18)</f>
         <v>3</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
-        <v>2.4</v>
+        <f>D18/5</f>
+        <v>1.8</v>
       </c>
       <c r="H18">
-        <f t="shared" si="3"/>
-        <v>1.25</v>
+        <f>F18/G18</f>
+        <v>1.6666666666666665</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -2968,480 +2972,479 @@
         <v>1</v>
       </c>
       <c r="L18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>L18/5</f>
+        <v>0.8</v>
       </c>
       <c r="N18">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
+        <f>L18/(5-C18)</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="6"/>
-        <v>2.4</v>
+        <f>F18/N18</f>
+        <v>2.25</v>
       </c>
       <c r="P18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
+        <f>((P18-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>6.25E-2</v>
       </c>
       <c r="R18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="X18">
-        <f t="shared" si="8"/>
+        <f>IF(W18="Bad",0,IF(W18="Bad-N",0,IF(W18="Good-N",1,IF(W18="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <f>D19/B19</f>
+        <v>2.5555555555555554</v>
+      </c>
+      <c r="F19" s="1">
+        <f>D19/(5-C19)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G19">
+        <f>D19/5</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H19">
+        <f>F19/G19</f>
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19" s="1">
         <v>6</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>14</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="1"/>
-        <v>2.8</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>2.8</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
+      <c r="K19" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="L19" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
+        <f>L19/5</f>
+        <v>2</v>
       </c>
       <c r="N19">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
+        <f>L19/(5-C19)</f>
+        <v>2</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="6"/>
-        <v>2.3333333333333335</v>
+        <f>F19/N19</f>
+        <v>2.2999999999999998</v>
       </c>
       <c r="P19" s="1">
         <v>4</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="7"/>
+        <f>((P19-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
         <v>0.25</v>
       </c>
       <c r="R19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>S19/T19</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="W19" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="X19">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>IF(W19="Bad",0,IF(W19="Bad-N",0,IF(W19="Good-N",1,IF(W19="Good",1,"bruhm"))))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
+        <f>D20/B20</f>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
+        <f>D20/(5-C20)</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
-        <v>2.8</v>
+        <f>D20/5</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H20">
-        <f t="shared" si="3"/>
-        <v>1.25</v>
+        <f>F20/G20</f>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="L20" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M20">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>L20/5</f>
+        <v>1.8</v>
       </c>
       <c r="N20">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
+        <f>L20/(5-C20)</f>
+        <v>1.8</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="6"/>
-        <v>2.8</v>
+        <f>F20/N20</f>
+        <v>2.5555555555555554</v>
       </c>
       <c r="P20" s="1">
         <v>4</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="7"/>
+        <f>((P20-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
         <v>0.25</v>
       </c>
       <c r="R20" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S20">
         <v>3</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
+        <f>S20/T20</f>
+        <v>1</v>
       </c>
       <c r="W20" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="X20">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>IF(W20="Bad",0,IF(W20="Bad-N",0,IF(W20="Good-N",1,IF(W20="Good",1,"bruhm"))))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <f>D21/B21</f>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="F21" s="1">
+        <f>D21/(5-C21)</f>
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <f>D21/5</f>
+        <v>3.2</v>
+      </c>
+      <c r="H21">
+        <f>F21/G21</f>
+        <v>1.25</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1">
         <v>6</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>14</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="1"/>
-        <v>2.8</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>2.8</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1</v>
+      <c r="K21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="L21" s="3">
         <v>6</v>
       </c>
       <c r="M21">
-        <f t="shared" si="4"/>
+        <f>L21/5</f>
         <v>1.2</v>
       </c>
       <c r="N21">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
+        <f>L21/(5-C21)</f>
+        <v>1.5</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="6"/>
-        <v>2.3333333333333335</v>
+        <f>F21/N21</f>
+        <v>2.6666666666666665</v>
       </c>
       <c r="P21" s="1">
         <v>4</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="7"/>
+        <f>((P21-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
         <v>0.25</v>
       </c>
       <c r="R21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
+        <f>S21/T21</f>
+        <v>1</v>
       </c>
       <c r="W21" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="X21">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>IF(W21="Bad",0,IF(W21="Bad-N",0,IF(W21="Good-N",1,IF(W21="Good",1,"bruhm"))))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
-        <v>2.3636363636363638</v>
+        <f>D22/B22</f>
+        <v>2.4</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2</v>
+        <f>D22/(5-C22)</f>
+        <v>3</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
-        <v>5.2</v>
+        <f>D22/5</f>
+        <v>2.4</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>F22/G22</f>
+        <v>1.25</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1">
-        <v>4</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <f t="shared" si="4"/>
-        <v>1.8</v>
+        <f>L22/5</f>
+        <v>0.8</v>
       </c>
       <c r="N22">
-        <f t="shared" si="5"/>
-        <v>1.8</v>
+        <f>L22/(5-C22)</f>
+        <v>1</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="6"/>
-        <v>2.8888888888888888</v>
+        <f>F22/N22</f>
+        <v>3</v>
       </c>
       <c r="P22" s="1">
         <v>4</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="7"/>
+        <f>((P22-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
         <v>0.25</v>
       </c>
       <c r="R22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <f>S22/T22</f>
+        <v>2</v>
       </c>
       <c r="W22" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="X22">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(W22="Bad",0,IF(W22="Bad-N",0,IF(W22="Good-N",1,IF(W22="Good",1,"bruhm"))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
-        <v>2.5555555555555554</v>
+        <f>D23/B23</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="1"/>
-        <v>4.5999999999999996</v>
+        <f>D23/(5-C23)</f>
+        <v>2.8</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
-        <v>4.5999999999999996</v>
+        <f>D23/5</f>
+        <v>2.8</v>
       </c>
       <c r="H23">
-        <f t="shared" si="3"/>
+        <f>F23/G23</f>
         <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1">
-        <v>3</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>104</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M23">
-        <f t="shared" si="4"/>
-        <v>1.6</v>
+        <f>L23/5</f>
+        <v>1</v>
       </c>
       <c r="N23">
-        <f t="shared" si="5"/>
-        <v>1.6</v>
+        <f>L23/(5-C23)</f>
+        <v>1</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="6"/>
-        <v>2.8749999999999996</v>
+        <f>F23/N23</f>
+        <v>2.8</v>
       </c>
       <c r="P23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="7"/>
-        <v>0.5625</v>
+        <f>((P23-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.25</v>
       </c>
       <c r="R23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="9"/>
-        <v>2.6666666666666665</v>
+        <f>S23/T23</f>
+        <v>2</v>
       </c>
       <c r="W23" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="X23">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(W23="Bad",0,IF(W23="Bad-N",0,IF(W23="Good-N",1,IF(W23="Good",1,"bruhm"))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <f>D24/B24</f>
+        <v>2.3636363636363638</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
+        <f>D24/(5-C24)</f>
+        <v>5.2</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
+        <f>D24/5</f>
+        <v>5.2</v>
       </c>
       <c r="H24">
-        <f t="shared" si="3"/>
+        <f>F24/G24</f>
         <v>1</v>
       </c>
       <c r="I24">
@@ -3451,135 +3454,135 @@
         <v>6</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="L24" s="3">
         <v>10</v>
       </c>
       <c r="M24">
-        <f t="shared" si="4"/>
+        <f>L24/5</f>
         <v>2</v>
       </c>
       <c r="N24">
-        <f t="shared" si="5"/>
+        <f>L24/(5-C24)</f>
         <v>2</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="6"/>
-        <v>2.2000000000000002</v>
+        <f>F24/N24</f>
+        <v>2.6</v>
       </c>
       <c r="P24" s="1">
         <v>4</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="7"/>
+        <f>((P24-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
         <v>0.25</v>
       </c>
       <c r="R24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <f>S24/T24</f>
+        <v>1.75</v>
       </c>
       <c r="W24" t="s">
         <v>26</v>
       </c>
       <c r="X24">
-        <f t="shared" si="8"/>
+        <f>IF(W24="Bad",0,IF(W24="Bad-N",0,IF(W24="Good-N",1,IF(W24="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
+        <f>D25/B25</f>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>D25/(5-C25)</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
-        <v>2.4</v>
+        <f>D25/5</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H25">
-        <f t="shared" si="3"/>
-        <v>1.6666666666666667</v>
+        <f>F25/G25</f>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="L25" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M25">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
+        <f>L25/5</f>
+        <v>1.2</v>
       </c>
       <c r="N25">
-        <f t="shared" si="5"/>
-        <v>1.3333333333333333</v>
+        <f>L25/(5-C25)</f>
+        <v>1.2</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>F25/N25</f>
+        <v>3.833333333333333</v>
       </c>
       <c r="P25" s="1">
         <v>4</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="7"/>
+        <f>((P25-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
         <v>0.25</v>
       </c>
       <c r="R25" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f>S25/T25</f>
+        <v>1</v>
       </c>
       <c r="W25" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="X25">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>IF(W25="Bad",0,IF(W25="Bad-N",0,IF(W25="Good-N",1,IF(W25="Good",1,"bruhm"))))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -3591,132 +3594,132 @@
         <v>12</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>D26/B26</f>
         <v>2.4</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="1"/>
+        <f>D26/(5-C26)</f>
         <v>3</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f>D26/5</f>
         <v>2.4</v>
       </c>
       <c r="H26">
-        <f t="shared" si="3"/>
+        <f>F26/G26</f>
         <v>1.25</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M26">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
+        <f>L26/5</f>
+        <v>1</v>
       </c>
       <c r="N26">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>L26/(5-C26)</f>
+        <v>1.25</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>F26/N26</f>
+        <v>2.4</v>
       </c>
       <c r="P26" s="1">
         <v>4</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="7"/>
+        <f>((P26-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
         <v>0.25</v>
       </c>
       <c r="R26" s="1">
         <v>1</v>
       </c>
       <c r="S26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f>S26/T26</f>
+        <v>1</v>
       </c>
       <c r="W26" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="X26">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(W26="Bad",0,IF(W26="Bad-N",0,IF(W26="Good-N",1,IF(W26="Good",1,"bruhm"))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>12</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f>D27/B27</f>
         <v>2.4</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>D27/(5-C27)</f>
+        <v>4</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f>D27/5</f>
         <v>2.4</v>
       </c>
       <c r="H27">
-        <f t="shared" si="3"/>
-        <v>1.25</v>
+        <f>F27/G27</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>L27/5</f>
+        <v>0.8</v>
       </c>
       <c r="N27">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
+        <f>L27/(5-C27)</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="6"/>
-        <v>2.4</v>
+        <f>F27/N27</f>
+        <v>3</v>
       </c>
       <c r="P27" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="7"/>
-        <v>6.25E-2</v>
+        <f>((P27-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.25</v>
       </c>
       <c r="R27" s="1">
         <v>1</v>
@@ -3728,44 +3731,44 @@
         <v>2</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="9"/>
+        <f>S27/T27</f>
         <v>1.5</v>
       </c>
       <c r="W27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="X27">
-        <f t="shared" si="8"/>
+        <f>IF(W27="Bad",0,IF(W27="Bad-N",0,IF(W27="Good-N",1,IF(W27="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
+        <f>D28/B28</f>
+        <v>2.4</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
+        <f>D28/(5-C28)</f>
+        <v>3</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
-        <v>2.8</v>
+        <f>D28/5</f>
+        <v>2.4</v>
       </c>
       <c r="H28">
-        <f t="shared" si="3"/>
+        <f>F28/G28</f>
         <v>1.25</v>
       </c>
       <c r="I28">
@@ -3781,291 +3784,291 @@
         <v>5</v>
       </c>
       <c r="M28">
-        <f t="shared" si="4"/>
+        <f>L28/5</f>
         <v>1</v>
       </c>
       <c r="N28">
-        <f t="shared" si="5"/>
+        <f>L28/(5-C28)</f>
         <v>1.25</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="6"/>
-        <v>2.8</v>
+        <f>F28/N28</f>
+        <v>2.4</v>
       </c>
       <c r="P28" s="1">
         <v>4</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="7"/>
+        <f>((P28-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
         <v>0.25</v>
       </c>
       <c r="R28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f>S28/T28</f>
+        <v>1</v>
       </c>
       <c r="W28" t="s">
         <v>26</v>
       </c>
       <c r="X28">
-        <f t="shared" si="8"/>
+        <f>IF(W28="Bad",0,IF(W28="Bad-N",0,IF(W28="Good-N",1,IF(W28="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <f>D29/B29</f>
+        <v>2.4</v>
+      </c>
+      <c r="F29" s="1">
+        <f>D29/(5-C29)</f>
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <f>D29/5</f>
+        <v>2.4</v>
+      </c>
+      <c r="H29">
+        <f>F29/G29</f>
+        <v>1.25</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <f>L29/5</f>
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f>L29/(5-C29)</f>
+        <v>1.25</v>
+      </c>
+      <c r="O29" s="1">
+        <f>F29/N29</f>
+        <v>2.4</v>
+      </c>
+      <c r="P29" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q29">
+        <f>((P29-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="R29" s="1">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>3</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29" s="1">
+        <f>S29/T29</f>
+        <v>1.5</v>
+      </c>
+      <c r="W29" t="s">
         <v>26</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>2.3636363636363638</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="2"/>
-        <v>5.2</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>4</v>
-      </c>
-      <c r="J29" s="1">
-        <v>5</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L29" s="3">
-        <v>9</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="4"/>
-        <v>1.8</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="5"/>
-        <v>1.8</v>
-      </c>
-      <c r="O29" s="1">
-        <f t="shared" si="6"/>
-        <v>2.8888888888888888</v>
-      </c>
-      <c r="P29" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
-      </c>
-      <c r="R29" s="1">
-        <v>3</v>
-      </c>
-      <c r="S29">
-        <v>5</v>
-      </c>
-      <c r="T29">
-        <v>4</v>
-      </c>
-      <c r="U29" s="1">
-        <f t="shared" si="9"/>
-        <v>1.25</v>
-      </c>
-      <c r="W29" t="s">
-        <v>31</v>
-      </c>
       <c r="X29">
-        <f t="shared" si="8"/>
+        <f>IF(W29="Bad",0,IF(W29="Bad-N",0,IF(W29="Good-N",1,IF(W29="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
-        <v>2.5555555555555554</v>
+        <f>D30/B30</f>
+        <v>2.4</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="1"/>
-        <v>4.5999999999999996</v>
+        <f>D30/(5-C30)</f>
+        <v>3</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
-        <v>4.5999999999999996</v>
+        <f>D30/5</f>
+        <v>2.4</v>
       </c>
       <c r="H30">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>F30/G30</f>
+        <v>1.25</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" s="1">
-        <v>2</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
       </c>
       <c r="L30" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M30">
-        <f t="shared" si="4"/>
-        <v>1.4</v>
+        <f>L30/5</f>
+        <v>1</v>
       </c>
       <c r="N30">
-        <f t="shared" si="5"/>
-        <v>1.4</v>
+        <f>L30/(5-C30)</f>
+        <v>1.25</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="6"/>
-        <v>3.2857142857142856</v>
+        <f>F30/N30</f>
+        <v>2.4</v>
       </c>
       <c r="P30" s="1">
         <v>4</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="7"/>
+        <f>((P30-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
         <v>0.25</v>
       </c>
       <c r="R30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f>S30/T30</f>
+        <v>1</v>
       </c>
       <c r="W30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="X30">
-        <f t="shared" si="8"/>
+        <f>IF(W30="Bad",0,IF(W30="Bad-N",0,IF(W30="Good-N",1,IF(W30="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <f>D31/B31</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
+        <f>D31/(5-C31)</f>
+        <v>3.5</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
+        <f>D31/5</f>
+        <v>2.8</v>
       </c>
       <c r="H31">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>F31/G31</f>
+        <v>1.25</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1">
-        <v>5</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
       </c>
       <c r="L31" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M31">
-        <f t="shared" si="4"/>
-        <v>1.4</v>
+        <f>L31/5</f>
+        <v>1</v>
       </c>
       <c r="N31">
-        <f t="shared" si="5"/>
-        <v>1.4</v>
+        <f>L31/(5-C31)</f>
+        <v>1.25</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="6"/>
-        <v>3.1428571428571432</v>
+        <f>F31/N31</f>
+        <v>2.8</v>
       </c>
       <c r="P31" s="1">
         <v>4</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="7"/>
+        <f>((P31-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
         <v>0.25</v>
       </c>
       <c r="R31" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <f>S31/T31</f>
+        <v>1.5</v>
       </c>
       <c r="W31" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="X31">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(W31="Bad",0,IF(W31="Bad-N",0,IF(W31="Good-N",1,IF(W31="Good",1,"bruhm"))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -4077,396 +4080,400 @@
         <v>12</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f>D32/B32</f>
         <v>2.4</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="1"/>
+        <f>D32/(5-C32)</f>
         <v>3</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f>D32/5</f>
         <v>2.4</v>
       </c>
       <c r="H32">
-        <f t="shared" si="3"/>
+        <f>F32/G32</f>
         <v>1.25</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M32">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
+        <f>L32/5</f>
+        <v>1</v>
       </c>
       <c r="N32">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>L32/(5-C32)</f>
+        <v>1.25</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>F32/N32</f>
+        <v>2.4</v>
       </c>
       <c r="P32" s="1">
         <v>4</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="7"/>
+        <f>((P32-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
         <v>0.25</v>
       </c>
       <c r="R32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U32" s="1">
-        <v>0</v>
+        <f>S32/T32</f>
+        <v>1.5</v>
       </c>
       <c r="W32" t="s">
         <v>26</v>
       </c>
       <c r="X32">
-        <f t="shared" si="8"/>
+        <f>IF(W32="Bad",0,IF(W32="Bad-N",0,IF(W32="Good-N",1,IF(W32="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
+        <f>D33/B33</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>D33/(5-C33)</f>
+        <v>2.8</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
-        <v>2.4</v>
+        <f>D33/5</f>
+        <v>2.8</v>
       </c>
       <c r="H33">
-        <f t="shared" si="3"/>
-        <v>1.25</v>
+        <f>F33/G33</f>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M33">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
+        <f>L33/5</f>
+        <v>1.2</v>
       </c>
       <c r="N33">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>L33/(5-C33)</f>
+        <v>1.2</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>F33/N33</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="P33" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="7"/>
-        <v>0.5625</v>
+        <f>((P33-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.25</v>
       </c>
       <c r="R33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="1">
-        <v>0</v>
+        <f>S33/T33</f>
+        <v>1</v>
       </c>
       <c r="W33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X33">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(W33="Bad",0,IF(W33="Bad-N",0,IF(W33="Good-N",1,IF(W33="Good",1,"bruhm"))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E61" si="10">D34/B34</f>
-        <v>2.4</v>
+        <f>D34/B34</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ref="F34:F61" si="11">D34/(5-C34)</f>
-        <v>4</v>
+        <f>D34/(5-C34)</f>
+        <v>3.5</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G61" si="12">D34/5</f>
-        <v>2.4</v>
+        <f>D34/5</f>
+        <v>2.8</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H61" si="13">F34/G34</f>
-        <v>1.6666666666666667</v>
+        <f>F34/G34</f>
+        <v>1.25</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M34">
-        <f t="shared" ref="M34:M61" si="14">L34/5</f>
-        <v>0.6</v>
+        <f>L34/5</f>
+        <v>1</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N61" si="15">L34/(5-C34)</f>
-        <v>1</v>
+        <f>L34/(5-C34)</f>
+        <v>1.25</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" ref="O34:O61" si="16">F34/N34</f>
-        <v>4</v>
+        <f>F34/N34</f>
+        <v>2.8</v>
       </c>
       <c r="P34" s="1">
         <v>4</v>
       </c>
       <c r="Q34">
-        <f t="shared" ref="Q34:Q61" si="17">((P34-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <f>((P34-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
         <v>0.25</v>
       </c>
       <c r="R34" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U34" s="1">
-        <v>0</v>
+        <f>S34/T34</f>
+        <v>1.5</v>
       </c>
       <c r="W34" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="X34">
-        <f t="shared" ref="X34:X61" si="18">IF(W34="Bad",0,IF(W34="Bad-N",0,IF(W34="Good-N",1,IF(W34="Good",1,"bruhm"))))</f>
-        <v>0</v>
+        <f>IF(W34="Bad",0,IF(W34="Bad-N",0,IF(W34="Good-N",1,IF(W34="Good",1,"bruhm"))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>14</v>
       </c>
       <c r="E35">
-        <f t="shared" si="10"/>
+        <f>D35/B35</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="11"/>
-        <v>3.5</v>
+        <f>D35/(5-C35)</f>
+        <v>2.8</v>
       </c>
       <c r="G35">
-        <f t="shared" si="12"/>
+        <f>D35/5</f>
         <v>2.8</v>
       </c>
       <c r="H35">
-        <f t="shared" si="13"/>
-        <v>1.25</v>
+        <f>F35/G35</f>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M35">
-        <f t="shared" si="14"/>
-        <v>0.8</v>
+        <f>L35/5</f>
+        <v>1.2</v>
       </c>
       <c r="N35">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>L35/(5-C35)</f>
+        <v>1.2</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" si="16"/>
-        <v>3.5</v>
+        <f>F35/N35</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="P35" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="17"/>
-        <v>0.5625</v>
+        <f>((P35-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.25</v>
       </c>
       <c r="R35" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U35" s="1">
-        <v>0</v>
+        <f>S35/T35</f>
+        <v>1.5</v>
       </c>
       <c r="W35" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="X35">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f>IF(W35="Bad",0,IF(W35="Bad-N",0,IF(W35="Good-N",1,IF(W35="Good",1,"bruhm"))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E36">
-        <f t="shared" si="10"/>
-        <v>2.1666666666666665</v>
+        <f>D36/B36</f>
+        <v>2.3636363636363638</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="11"/>
-        <v>2.6</v>
+        <f>D36/(5-C36)</f>
+        <v>5.2</v>
       </c>
       <c r="G36">
-        <f t="shared" si="12"/>
-        <v>2.6</v>
+        <f>D36/5</f>
+        <v>5.2</v>
       </c>
       <c r="H36">
-        <f t="shared" si="13"/>
+        <f>F36/G36</f>
         <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J36" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="L36" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M36">
-        <f t="shared" si="14"/>
-        <v>1.4</v>
+        <f>L36/5</f>
+        <v>1.8</v>
       </c>
       <c r="N36">
-        <f t="shared" si="15"/>
-        <v>1.4</v>
+        <f>L36/(5-C36)</f>
+        <v>1.8</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="16"/>
-        <v>1.8571428571428574</v>
+        <f>F36/N36</f>
+        <v>2.8888888888888888</v>
       </c>
       <c r="P36" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f>((P36-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.25</v>
       </c>
       <c r="R36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" ref="U36:U55" si="19">S36/T36</f>
-        <v>2</v>
+        <f>S36/T36</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="W36" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X36">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>IF(W36="Bad",0,IF(W36="Bad-N",0,IF(W36="Good-N",1,IF(W36="Good",1,"bruhm"))))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B37">
         <v>10</v>
@@ -4475,160 +4482,160 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37">
-        <f t="shared" si="10"/>
-        <v>2.2999999999999998</v>
+        <f>D37/B37</f>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="11"/>
-        <v>4.5999999999999996</v>
+        <f>D37/(5-C37)</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G37">
-        <f t="shared" si="12"/>
-        <v>4.5999999999999996</v>
+        <f>D37/5</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H37">
-        <f t="shared" si="13"/>
+        <f>F37/G37</f>
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J37" s="1">
-        <v>2</v>
-      </c>
-      <c r="K37" s="1">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="L37" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M37">
-        <f t="shared" si="14"/>
-        <v>1.2</v>
+        <f>L37/5</f>
+        <v>2</v>
       </c>
       <c r="N37">
-        <f t="shared" si="15"/>
-        <v>1.2</v>
+        <f>L37/(5-C37)</f>
+        <v>2</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="16"/>
-        <v>3.833333333333333</v>
+        <f>F37/N37</f>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P37" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="17"/>
-        <v>0.5625</v>
+        <f>((P37-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.25</v>
       </c>
       <c r="R37" s="1">
         <v>4</v>
       </c>
       <c r="S37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="19"/>
-        <v>1.5</v>
+        <f>S37/T37</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="W37" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="X37">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f>IF(W37="Bad",0,IF(W37="Bad-N",0,IF(W37="Good-N",1,IF(W37="Good",1,"bruhm"))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E38">
-        <f t="shared" si="10"/>
-        <v>2.25</v>
+        <f>D38/B38</f>
+        <v>2.4</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="11"/>
-        <v>3.6</v>
+        <f>D38/(5-C38)</f>
+        <v>4</v>
       </c>
       <c r="G38">
-        <f t="shared" si="12"/>
-        <v>3.6</v>
+        <f>D38/5</f>
+        <v>2.4</v>
       </c>
       <c r="H38">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f>F38/G38</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" s="1">
-        <v>4</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>68</v>
+        <v>1</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
       </c>
       <c r="L38" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <f t="shared" si="14"/>
-        <v>1.4</v>
+        <f>L38/5</f>
+        <v>0.8</v>
       </c>
       <c r="N38">
-        <f t="shared" si="15"/>
-        <v>1.4</v>
+        <f>L38/(5-C38)</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="16"/>
-        <v>2.5714285714285716</v>
+        <f>F38/N38</f>
+        <v>3</v>
       </c>
       <c r="P38" s="1">
         <v>4</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="17"/>
+        <f>((P38-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
         <v>0.25</v>
       </c>
       <c r="R38" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="19"/>
+        <f>S38/T38</f>
         <v>2</v>
       </c>
       <c r="W38" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="X38">
-        <f t="shared" si="18"/>
+        <f>IF(W38="Bad",0,IF(W38="Bad-N",0,IF(W38="Good-N",1,IF(W38="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -4640,1614 +4647,1611 @@
         <v>12</v>
       </c>
       <c r="E39">
-        <f t="shared" si="10"/>
+        <f>D39/B39</f>
         <v>2.4</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="11"/>
+        <f>D39/(5-C39)</f>
         <v>3</v>
       </c>
       <c r="G39">
-        <f t="shared" si="12"/>
+        <f>D39/5</f>
         <v>2.4</v>
       </c>
       <c r="H39">
-        <f t="shared" si="13"/>
+        <f>F39/G39</f>
         <v>1.25</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f>L39/5</f>
+        <v>0.8</v>
       </c>
       <c r="N39">
-        <f t="shared" si="15"/>
-        <v>1.25</v>
+        <f>L39/(5-C39)</f>
+        <v>1</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="16"/>
-        <v>2.4</v>
+        <f>F39/N39</f>
+        <v>3</v>
       </c>
       <c r="P39" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="17"/>
-        <v>6.25E-2</v>
+        <f>((P39-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.25</v>
       </c>
       <c r="R39" s="1">
         <v>1</v>
       </c>
       <c r="S39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="19"/>
-        <v>1.6666666666666667</v>
+        <f>S39/T39</f>
+        <v>2</v>
       </c>
       <c r="W39" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="X39">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>IF(W39="Bad",0,IF(W39="Bad-N",0,IF(W39="Good-N",1,IF(W39="Good",1,"bruhm"))))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E40">
-        <f t="shared" si="10"/>
-        <v>2.4</v>
+        <f>D40/B40</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f>D40/(5-C40)</f>
+        <v>3.5</v>
       </c>
       <c r="G40">
-        <f t="shared" si="12"/>
-        <v>2.4</v>
+        <f>D40/5</f>
+        <v>2.8</v>
       </c>
       <c r="H40">
-        <f t="shared" si="13"/>
-        <v>1.6666666666666667</v>
+        <f>F40/G40</f>
+        <v>1.25</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" s="1">
-        <v>3</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>71</v>
+        <v>1</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1</v>
       </c>
       <c r="L40" s="3">
         <v>5</v>
       </c>
       <c r="M40">
-        <f t="shared" si="14"/>
+        <f>L40/5</f>
         <v>1</v>
       </c>
       <c r="N40">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
+        <f>L40/(5-C40)</f>
+        <v>1.25</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="16"/>
-        <v>2.4</v>
+        <f>F40/N40</f>
+        <v>2.8</v>
       </c>
       <c r="P40" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="17"/>
-        <v>6.25E-2</v>
+        <f>((P40-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.25</v>
       </c>
       <c r="R40" s="1">
         <v>1</v>
       </c>
       <c r="S40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="19"/>
-        <v>1.6666666666666667</v>
+        <f>S40/T40</f>
+        <v>2</v>
       </c>
       <c r="W40" t="s">
         <v>26</v>
       </c>
       <c r="X40">
-        <f t="shared" si="18"/>
+        <f>IF(W40="Bad",0,IF(W40="Bad-N",0,IF(W40="Good-N",1,IF(W40="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E41">
-        <f t="shared" si="10"/>
-        <v>2.4</v>
+        <f>D41/B41</f>
+        <v>2.3636363636363638</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f>D41/(5-C41)</f>
+        <v>5.2</v>
       </c>
       <c r="G41">
-        <f t="shared" si="12"/>
-        <v>2.4</v>
+        <f>D41/5</f>
+        <v>5.2</v>
       </c>
       <c r="H41">
-        <f t="shared" si="13"/>
+        <f>F41/G41</f>
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41" s="1">
+        <v>5</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L41" s="3">
+        <v>9</v>
+      </c>
+      <c r="M41">
+        <f>L41/5</f>
+        <v>1.8</v>
+      </c>
+      <c r="N41">
+        <f>L41/(5-C41)</f>
+        <v>1.8</v>
+      </c>
+      <c r="O41" s="1">
+        <f>F41/N41</f>
+        <v>2.8888888888888888</v>
+      </c>
+      <c r="P41" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q41">
+        <f>((P41-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="R41" s="1">
+        <v>3</v>
+      </c>
+      <c r="S41">
+        <v>5</v>
+      </c>
+      <c r="T41">
+        <v>4</v>
+      </c>
+      <c r="U41" s="1">
+        <f>S41/T41</f>
         <v>1.25</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41" s="1">
-        <v>2</v>
-      </c>
-      <c r="K41" s="1">
-        <v>2</v>
-      </c>
-      <c r="L41" s="3">
-        <v>5</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="15"/>
-        <v>1.25</v>
-      </c>
-      <c r="O41" s="1">
-        <f t="shared" si="16"/>
-        <v>2.4</v>
-      </c>
-      <c r="P41" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="17"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="R41" s="1">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>5</v>
-      </c>
-      <c r="T41">
-        <v>3</v>
-      </c>
-      <c r="U41" s="1">
-        <f t="shared" si="19"/>
-        <v>1.6666666666666667</v>
-      </c>
       <c r="W41" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="X41">
-        <f t="shared" si="18"/>
+        <f>IF(W41="Bad",0,IF(W41="Bad-N",0,IF(W41="Good-N",1,IF(W41="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E42">
-        <f t="shared" si="10"/>
-        <v>2.3333333333333335</v>
+        <f>D42/B42</f>
+        <v>2.5555555555555554</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="11"/>
-        <v>3.5</v>
+        <f>D42/(5-C42)</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G42">
-        <f t="shared" si="12"/>
-        <v>2.8</v>
+        <f>D42/5</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H42">
-        <f t="shared" si="13"/>
-        <v>1.25</v>
+        <f>F42/G42</f>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>2</v>
       </c>
       <c r="J42" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="L42" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M42">
-        <f t="shared" si="14"/>
-        <v>1.2</v>
+        <f>L42/5</f>
+        <v>1.4</v>
       </c>
       <c r="N42">
-        <f t="shared" si="15"/>
-        <v>1.5</v>
+        <f>L42/(5-C42)</f>
+        <v>1.4</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="16"/>
-        <v>2.3333333333333335</v>
+        <f>F42/N42</f>
+        <v>3.2857142857142856</v>
       </c>
       <c r="P42" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="17"/>
-        <v>6.25E-2</v>
+        <f>((P42-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.25</v>
       </c>
       <c r="R42" s="1">
         <v>1</v>
       </c>
       <c r="S42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="19"/>
-        <v>1.6666666666666667</v>
+        <f>S42/T42</f>
+        <v>2</v>
       </c>
       <c r="W42" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="X42">
-        <f t="shared" si="18"/>
+        <f>IF(W42="Bad",0,IF(W42="Bad-N",0,IF(W42="Good-N",1,IF(W42="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
         <v>22</v>
       </c>
-      <c r="B43">
-        <v>6</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>15</v>
-      </c>
       <c r="E43">
-        <f t="shared" si="10"/>
-        <v>2.5</v>
+        <f>D43/B43</f>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f>D43/(5-C43)</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G43">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f>D43/5</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H43">
-        <f t="shared" si="13"/>
+        <f>F43/G43</f>
         <v>1</v>
       </c>
       <c r="I43">
         <v>3</v>
       </c>
       <c r="J43" s="1">
-        <v>6</v>
-      </c>
-      <c r="K43" s="1">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="L43" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M43">
-        <f t="shared" si="14"/>
-        <v>1.6</v>
+        <f>L43/5</f>
+        <v>1.4</v>
       </c>
       <c r="N43">
-        <f t="shared" si="15"/>
-        <v>1.6</v>
+        <f>L43/(5-C43)</f>
+        <v>1.4</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" si="16"/>
-        <v>1.875</v>
+        <f>F43/N43</f>
+        <v>3.1428571428571432</v>
       </c>
       <c r="P43" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="17"/>
-        <v>6.25E-2</v>
+        <f>((P43-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.25</v>
       </c>
       <c r="R43" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="19"/>
-        <v>1.5</v>
+        <f>S43/T43</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="W43" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="X43">
-        <f t="shared" si="18"/>
+        <f>IF(W43="Bad",0,IF(W43="Bad-N",0,IF(W43="Good-N",1,IF(W43="Good",1,"bruhm"))))</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E44">
-        <f t="shared" si="10"/>
-        <v>2.5</v>
+        <f>D44/B44</f>
+        <v>2.4</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="11"/>
+        <f>D44/(5-C44)</f>
         <v>3</v>
       </c>
       <c r="G44">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f>D44/5</f>
+        <v>2.4</v>
       </c>
       <c r="H44">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f>F44/G44</f>
+        <v>1.25</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" s="1">
-        <v>5</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <f t="shared" si="14"/>
-        <v>1.6</v>
+        <f>L44/5</f>
+        <v>0.8</v>
       </c>
       <c r="N44">
-        <f t="shared" si="15"/>
-        <v>1.6</v>
+        <f>L44/(5-C44)</f>
+        <v>1</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="16"/>
-        <v>1.875</v>
+        <f>F44/N44</f>
+        <v>3</v>
       </c>
       <c r="P44" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="17"/>
-        <v>6.25E-2</v>
+        <f>((P44-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.25</v>
       </c>
       <c r="R44" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="19"/>
-        <v>1.6666666666666667</v>
+        <v>0</v>
       </c>
       <c r="W44" t="s">
         <v>26</v>
       </c>
       <c r="X44">
-        <f t="shared" si="18"/>
+        <f>IF(W44="Bad",0,IF(W44="Bad-N",0,IF(W44="Good-N",1,IF(W44="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E45">
-        <f t="shared" si="10"/>
-        <v>2.5555555555555554</v>
+        <f>D45/B45</f>
+        <v>2.4</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="11"/>
-        <v>4.5999999999999996</v>
+        <f>D45/(5-C45)</f>
+        <v>4</v>
       </c>
       <c r="G45">
-        <f t="shared" si="12"/>
-        <v>4.5999999999999996</v>
+        <f>D45/5</f>
+        <v>2.4</v>
       </c>
       <c r="H45">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f>F45/G45</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J45" s="1">
-        <v>4</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M45">
-        <f t="shared" si="14"/>
-        <v>1.8</v>
+        <f>L45/5</f>
+        <v>0.6</v>
       </c>
       <c r="N45">
-        <f t="shared" si="15"/>
-        <v>1.8</v>
+        <f>L45/(5-C45)</f>
+        <v>1</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="16"/>
-        <v>2.5555555555555554</v>
+        <f>F45/N45</f>
+        <v>4</v>
       </c>
       <c r="P45" s="1">
         <v>4</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="17"/>
+        <f>((P45-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
         <v>0.25</v>
       </c>
       <c r="R45" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="19"/>
-        <v>1.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="X45">
-        <f t="shared" si="18"/>
+        <f>IF(W45="Bad",0,IF(W45="Bad-N",0,IF(W45="Good-N",1,IF(W45="Good",1,"bruhm"))))</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E46">
-        <f t="shared" si="10"/>
-        <v>2.2000000000000002</v>
+        <f>D46/B46</f>
+        <v>2.25</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="11"/>
-        <v>4.4000000000000004</v>
+        <f>D46/(5-C46)</f>
+        <v>3.6</v>
       </c>
       <c r="G46">
-        <f t="shared" si="12"/>
-        <v>4.4000000000000004</v>
+        <f>D46/5</f>
+        <v>3.6</v>
       </c>
       <c r="H46">
-        <f t="shared" si="13"/>
+        <f>F46/G46</f>
         <v>1</v>
       </c>
       <c r="I46">
         <v>2</v>
       </c>
       <c r="J46" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="L46" s="3">
         <v>7</v>
       </c>
       <c r="M46">
-        <f t="shared" si="14"/>
+        <f>L46/5</f>
         <v>1.4</v>
       </c>
       <c r="N46">
-        <f t="shared" si="15"/>
+        <f>L46/(5-C46)</f>
         <v>1.4</v>
       </c>
       <c r="O46" s="1">
-        <f t="shared" si="16"/>
-        <v>3.1428571428571432</v>
+        <f>F46/N46</f>
+        <v>2.5714285714285716</v>
       </c>
       <c r="P46" s="1">
         <v>4</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="17"/>
+        <f>((P46-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
         <v>0.25</v>
       </c>
       <c r="R46" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="19"/>
-        <v>1.5</v>
+        <f>S46/T46</f>
+        <v>2</v>
       </c>
       <c r="W46" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="X46">
-        <f t="shared" si="18"/>
+        <f>IF(W46="Bad",0,IF(W46="Bad-N",0,IF(W46="Good-N",1,IF(W46="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E47">
-        <f t="shared" si="10"/>
-        <v>2.4</v>
+        <f>D47/B47</f>
+        <v>2.5555555555555554</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f>D47/(5-C47)</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G47">
-        <f t="shared" si="12"/>
-        <v>2.4</v>
+        <f>D47/5</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H47">
-        <f t="shared" si="13"/>
-        <v>1.25</v>
+        <f>F47/G47</f>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J47" s="1">
-        <v>2</v>
-      </c>
-      <c r="K47" s="1">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="L47" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M47">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f>L47/5</f>
+        <v>1.8</v>
       </c>
       <c r="N47">
-        <f t="shared" si="15"/>
-        <v>1.25</v>
+        <f>L47/(5-C47)</f>
+        <v>1.8</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="16"/>
-        <v>2.4</v>
+        <f>F47/N47</f>
+        <v>2.5555555555555554</v>
       </c>
       <c r="P47" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="17"/>
-        <v>6.25E-2</v>
+        <f>((P47-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.25</v>
       </c>
       <c r="R47" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f>S47/T47</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="W47" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="X47">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>IF(W47="Bad",0,IF(W47="Bad-N",0,IF(W47="Good-N",1,IF(W47="Good",1,"bruhm"))))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E48">
-        <f t="shared" si="10"/>
-        <v>2.4</v>
+        <f>D48/B48</f>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f>D48/(5-C48)</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G48">
-        <f t="shared" si="12"/>
-        <v>2.4</v>
+        <f>D48/5</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H48">
-        <f t="shared" si="13"/>
-        <v>1.25</v>
+        <f>F48/G48</f>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" s="1">
         <v>2</v>
       </c>
-      <c r="K48" s="1">
-        <v>2</v>
+      <c r="K48" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="L48" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M48">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f>L48/5</f>
+        <v>1.4</v>
       </c>
       <c r="N48">
-        <f t="shared" si="15"/>
-        <v>1.25</v>
+        <f>L48/(5-C48)</f>
+        <v>1.4</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="16"/>
-        <v>2.4</v>
+        <f>F48/N48</f>
+        <v>3.1428571428571432</v>
       </c>
       <c r="P48" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="17"/>
-        <v>6.25E-2</v>
+        <f>((P48-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.25</v>
       </c>
       <c r="R48" s="1">
         <v>1</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T48">
         <v>2</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f>S48/T48</f>
+        <v>1.5</v>
       </c>
       <c r="W48" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="X48">
-        <f t="shared" si="18"/>
+        <f>IF(W48="Bad",0,IF(W48="Bad-N",0,IF(W48="Good-N",1,IF(W48="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E49">
-        <f t="shared" si="10"/>
-        <v>2.4</v>
+        <f>D49/B49</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f>D49/(5-C49)</f>
+        <v>4.2</v>
       </c>
       <c r="G49">
-        <f t="shared" si="12"/>
-        <v>2.4</v>
+        <f>D49/5</f>
+        <v>4.2</v>
       </c>
       <c r="H49">
-        <f t="shared" si="13"/>
-        <v>1.25</v>
+        <f>F49/G49</f>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49" s="1">
-        <v>3</v>
-      </c>
-      <c r="K49" s="1">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="L49" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M49">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f>L49/5</f>
+        <v>1.6</v>
       </c>
       <c r="N49">
-        <f t="shared" si="15"/>
-        <v>1.25</v>
+        <f>L49/(5-C49)</f>
+        <v>1.6</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="16"/>
-        <v>2.4</v>
+        <f>F49/N49</f>
+        <v>2.625</v>
       </c>
       <c r="P49" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="17"/>
-        <v>6.25E-2</v>
+        <f>((P49-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.25</v>
       </c>
       <c r="R49" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T49">
         <v>1</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f>S49/T49</f>
+        <v>2</v>
       </c>
       <c r="W49" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X49">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>IF(W49="Bad",0,IF(W49="Bad-N",0,IF(W49="Good-N",1,IF(W49="Good",1,"bruhm"))))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <f t="shared" si="10"/>
-        <v>2.3333333333333335</v>
+        <f>D50/B50</f>
+        <v>2.2222222222222223</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="11"/>
-        <v>3.5</v>
+        <f>D50/(5-C50)</f>
+        <v>4</v>
       </c>
       <c r="G50">
-        <f t="shared" si="12"/>
-        <v>2.8</v>
+        <f>D50/5</f>
+        <v>4</v>
       </c>
       <c r="H50">
-        <f t="shared" si="13"/>
-        <v>1.25</v>
+        <f>F50/G50</f>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J50" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="L50" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M50">
-        <f t="shared" si="14"/>
-        <v>1.2</v>
+        <f>L50/5</f>
+        <v>1.8</v>
       </c>
       <c r="N50">
-        <f t="shared" si="15"/>
-        <v>1.5</v>
+        <f>L50/(5-C50)</f>
+        <v>1.8</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="16"/>
-        <v>2.3333333333333335</v>
+        <f>F50/N50</f>
+        <v>2.2222222222222223</v>
       </c>
       <c r="P50" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="17"/>
-        <v>6.25E-2</v>
+        <f>((P50-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.25</v>
       </c>
       <c r="R50" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f>S50/T50</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="W50" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X50">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>IF(W50="Bad",0,IF(W50="Bad-N",0,IF(W50="Good-N",1,IF(W50="Good",1,"bruhm"))))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>23</v>
+      </c>
+      <c r="E51">
+        <f>D51/B51</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F51" s="1">
+        <f>D51/(5-C51)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G51">
+        <f>D51/5</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H51">
+        <f>F51/G51</f>
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51" s="1">
+        <v>6</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L51" s="3">
         <v>9</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>21</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="10"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="F51" s="1">
-        <f t="shared" si="11"/>
-        <v>4.2</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="12"/>
-        <v>4.2</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>3</v>
-      </c>
-      <c r="J51" s="1">
-        <v>5</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L51" s="3">
-        <v>8</v>
-      </c>
       <c r="M51">
-        <f t="shared" si="14"/>
-        <v>1.6</v>
+        <f>L51/5</f>
+        <v>1.8</v>
       </c>
       <c r="N51">
-        <f t="shared" si="15"/>
-        <v>1.6</v>
+        <f>L51/(5-C51)</f>
+        <v>1.8</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="16"/>
-        <v>2.625</v>
+        <f>F51/N51</f>
+        <v>2.5555555555555554</v>
       </c>
       <c r="P51" s="1">
         <v>4</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="17"/>
+        <f>((P51-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
         <v>0.25</v>
       </c>
       <c r="R51" s="1">
         <v>4</v>
       </c>
       <c r="S51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="19"/>
-        <v>2</v>
+        <f>S51/T51</f>
+        <v>1.5</v>
       </c>
       <c r="W51" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="X51">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f>IF(W51="Bad",0,IF(W51="Bad-N",0,IF(W51="Good-N",1,IF(W51="Good",1,"bruhm"))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
         <v>9</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>20</v>
-      </c>
       <c r="E52">
-        <f t="shared" si="10"/>
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="F52" s="1">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f>D52/B52</f>
+        <v>2.25</v>
+      </c>
+      <c r="F52" s="2">
+        <f>D52/(5-C52)</f>
+        <v>3</v>
       </c>
       <c r="G52">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f>D52/5</f>
+        <v>1.8</v>
       </c>
       <c r="H52">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f>F52/G52</f>
+        <v>1.6666666666666665</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J52" s="1">
-        <v>11</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>107</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M52">
-        <f t="shared" si="14"/>
-        <v>1.8</v>
+        <f>L52/5</f>
+        <v>0.6</v>
       </c>
       <c r="N52">
-        <f t="shared" si="15"/>
-        <v>1.8</v>
-      </c>
-      <c r="O52" s="1">
-        <f t="shared" si="16"/>
-        <v>2.2222222222222223</v>
+        <f>L52/(5-C52)</f>
+        <v>1</v>
+      </c>
+      <c r="O52" s="2">
+        <f>F52/N52</f>
+        <v>3</v>
       </c>
       <c r="P52" s="1">
         <v>4</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="17"/>
+        <f>((P52-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
         <v>0.25</v>
       </c>
       <c r="R52" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>3</v>
-      </c>
-      <c r="U52" s="1">
-        <f t="shared" si="19"/>
-        <v>1.6666666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="U52" s="2">
+        <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X52">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f>IF(W52="Bad",0,IF(W52="Bad-N",0,IF(W52="Good-N",1,IF(W52="Good",1,"bruhm"))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
+        <v>15</v>
+      </c>
+      <c r="E53">
+        <f>D53/B53</f>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="F53" s="1">
+        <f>D53/(5-C53)</f>
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <f>D53/5</f>
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <f>F53/G53</f>
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53" s="1">
+        <v>7</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L53" s="3">
+        <v>6</v>
+      </c>
+      <c r="M53">
+        <f>L53/5</f>
+        <v>1.2</v>
+      </c>
+      <c r="N53">
+        <f>L53/(5-C53)</f>
+        <v>1.2</v>
+      </c>
+      <c r="O53" s="1">
+        <f>F53/N53</f>
+        <v>2.5</v>
+      </c>
+      <c r="P53" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q53">
+        <f>((P53-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="R53" s="1">
+        <v>3</v>
+      </c>
+      <c r="S53">
+        <v>4</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53" s="1">
+        <f>S53/T53</f>
+        <v>2</v>
+      </c>
+      <c r="W53" t="s">
         <v>23</v>
       </c>
-      <c r="E53">
-        <f t="shared" si="10"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F53" s="1">
-        <f t="shared" si="11"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="12"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>4</v>
-      </c>
-      <c r="J53" s="1">
-        <v>6</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L53" s="3">
-        <v>9</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="14"/>
-        <v>1.8</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="15"/>
-        <v>1.8</v>
-      </c>
-      <c r="O53" s="1">
-        <f t="shared" si="16"/>
-        <v>2.5555555555555554</v>
-      </c>
-      <c r="P53" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q53">
-        <f t="shared" si="17"/>
-        <v>0.25</v>
-      </c>
-      <c r="R53" s="1">
-        <v>4</v>
-      </c>
-      <c r="S53">
-        <v>3</v>
-      </c>
-      <c r="T53">
-        <v>2</v>
-      </c>
-      <c r="U53" s="1">
-        <f t="shared" si="19"/>
-        <v>1.5</v>
-      </c>
-      <c r="W53" t="s">
-        <v>31</v>
-      </c>
       <c r="X53">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>IF(W53="Bad",0,IF(W53="Bad-N",0,IF(W53="Good-N",1,IF(W53="Good",1,"bruhm"))))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E54">
-        <f t="shared" si="10"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="F54" s="2">
-        <f t="shared" si="11"/>
-        <v>3.5</v>
+        <f>D54/B54</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F54" s="1">
+        <f>D54/(5-C54)</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G54">
-        <f t="shared" si="12"/>
-        <v>2.8</v>
+        <f>D54/5</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H54">
-        <f t="shared" si="13"/>
-        <v>1.25</v>
+        <f>F54/G54</f>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L54" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M54">
-        <f t="shared" si="14"/>
-        <v>1.2</v>
+        <f>L54/5</f>
+        <v>1.6</v>
       </c>
       <c r="N54">
-        <f t="shared" si="15"/>
+        <f>L54/(5-C54)</f>
+        <v>1.6</v>
+      </c>
+      <c r="O54" s="1">
+        <f>F54/N54</f>
+        <v>2.8749999999999996</v>
+      </c>
+      <c r="P54" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q54">
+        <f>((P54-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="R54" s="1">
+        <v>5</v>
+      </c>
+      <c r="S54">
+        <v>3</v>
+      </c>
+      <c r="T54">
+        <v>2</v>
+      </c>
+      <c r="U54" s="1">
+        <f>S54/T54</f>
         <v>1.5</v>
-      </c>
-      <c r="O54" s="2">
-        <f t="shared" si="16"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="P54" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q54">
-        <f t="shared" si="17"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="R54" s="1">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>3</v>
-      </c>
-      <c r="T54">
-        <v>3</v>
-      </c>
-      <c r="U54" s="2">
-        <f t="shared" si="19"/>
-        <v>1</v>
       </c>
       <c r="W54" t="s">
         <v>31</v>
       </c>
       <c r="X54">
-        <f t="shared" si="18"/>
+        <f>IF(W54="Bad",0,IF(W54="Bad-N",0,IF(W54="Good-N",1,IF(W54="Good",1,"bruhm"))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E55">
-        <f t="shared" si="10"/>
-        <v>2.2857142857142856</v>
-      </c>
-      <c r="F55" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f>D55/B55</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="F55" s="1">
+        <f>D55/(5-C55)</f>
+        <v>3.5</v>
       </c>
       <c r="G55">
-        <f t="shared" si="12"/>
-        <v>3.2</v>
+        <f>D55/5</f>
+        <v>2.8</v>
       </c>
       <c r="H55">
-        <f t="shared" si="13"/>
+        <f>F55/G55</f>
         <v>1.25</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55" s="1">
-        <v>3</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1</v>
       </c>
       <c r="L55" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M55">
-        <f t="shared" si="14"/>
-        <v>1.4</v>
+        <f>L55/5</f>
+        <v>1</v>
       </c>
       <c r="N55">
-        <f t="shared" si="15"/>
-        <v>1.75</v>
-      </c>
-      <c r="O55" s="2">
-        <f t="shared" si="16"/>
-        <v>2.2857142857142856</v>
+        <f>L55/(5-C55)</f>
+        <v>1.25</v>
+      </c>
+      <c r="O55" s="1">
+        <f>F55/N55</f>
+        <v>2.8</v>
       </c>
       <c r="P55" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="17"/>
-        <v>6.25E-2</v>
+        <f>((P55-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.25</v>
       </c>
       <c r="R55" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T55">
-        <v>3</v>
-      </c>
-      <c r="U55" s="2">
-        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="U55" s="1">
+        <f>S55/T55</f>
         <v>1</v>
       </c>
       <c r="W55" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="X55">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>IF(W55="Bad",0,IF(W55="Bad-N",0,IF(W55="Good-N",1,IF(W55="Good",1,"bruhm"))))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E56">
-        <f t="shared" si="10"/>
-        <v>2.25</v>
-      </c>
-      <c r="F56" s="2">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f>D56/B56</f>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="F56" s="1">
+        <f>D56/(5-C56)</f>
+        <v>3.2</v>
       </c>
       <c r="G56">
-        <f t="shared" si="12"/>
-        <v>1.8</v>
+        <f>D56/5</f>
+        <v>3.2</v>
       </c>
       <c r="H56">
-        <f t="shared" si="13"/>
-        <v>1.6666666666666665</v>
+        <f>F56/G56</f>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M56">
-        <f t="shared" si="14"/>
-        <v>0.6</v>
+        <f>L56/5</f>
+        <v>1.2</v>
       </c>
       <c r="N56">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="O56" s="2">
-        <f t="shared" si="16"/>
-        <v>3</v>
+        <f>L56/(5-C56)</f>
+        <v>1.2</v>
+      </c>
+      <c r="O56" s="1">
+        <f>F56/N56</f>
+        <v>2.666666666666667</v>
       </c>
       <c r="P56" s="1">
         <v>4</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="17"/>
+        <f>((P56-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
         <v>0.25</v>
       </c>
       <c r="R56" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56" s="2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="U56" s="1">
+        <f>S56/T56</f>
+        <v>1</v>
       </c>
       <c r="W56" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X56">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>IF(W56="Bad",0,IF(W56="Bad-N",0,IF(W56="Good-N",1,IF(W56="Good",1,"bruhm"))))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E57">
-        <f t="shared" si="10"/>
-        <v>2.1428571428571428</v>
+        <f>D57/B57</f>
+        <v>2.5555555555555554</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f>D57/(5-C57)</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G57">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f>D57/5</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H57">
-        <f t="shared" si="13"/>
+        <f>F57/G57</f>
         <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="L57" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M57">
-        <f t="shared" si="14"/>
-        <v>1.2</v>
+        <f>L57/5</f>
+        <v>1.6</v>
       </c>
       <c r="N57">
-        <f t="shared" si="15"/>
-        <v>1.2</v>
+        <f>L57/(5-C57)</f>
+        <v>1.6</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="16"/>
-        <v>2.5</v>
+        <f>F57/N57</f>
+        <v>2.8749999999999996</v>
       </c>
       <c r="P57" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="17"/>
-        <v>0.25</v>
+        <f>((P57-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.5625</v>
       </c>
       <c r="R57" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U57" s="1">
         <f>S57/T57</f>
-        <v>2</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="W57" t="s">
         <v>23</v>
       </c>
       <c r="X57">
-        <f t="shared" si="18"/>
+        <f>IF(W57="Bad",0,IF(W57="Bad-N",0,IF(W57="Good-N",1,IF(W57="Good",1,"bruhm"))))</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
+        <v>12</v>
+      </c>
+      <c r="E58">
+        <f>D58/B58</f>
+        <v>2.4</v>
+      </c>
+      <c r="F58" s="1">
+        <f>D58/(5-C58)</f>
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <f>D58/5</f>
+        <v>2.4</v>
+      </c>
+      <c r="H58">
+        <f>F58/G58</f>
+        <v>1.25</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>4</v>
+      </c>
+      <c r="M58">
+        <f>L58/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="N58">
+        <f>L58/(5-C58)</f>
+        <v>1</v>
+      </c>
+      <c r="O58" s="1">
+        <f>F58/N58</f>
+        <v>3</v>
+      </c>
+      <c r="P58" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q58">
+        <f>((P58-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.5625</v>
+      </c>
+      <c r="R58" s="1">
+        <v>3</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58" s="1">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
         <v>23</v>
       </c>
-      <c r="E58">
-        <f t="shared" si="10"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F58" s="1">
-        <f t="shared" si="11"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="12"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="I58">
-        <v>3</v>
-      </c>
-      <c r="J58" s="1">
-        <v>4</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L58" s="3">
-        <v>8</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="14"/>
-        <v>1.6</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="15"/>
-        <v>1.6</v>
-      </c>
-      <c r="O58" s="1">
-        <f t="shared" si="16"/>
-        <v>2.8749999999999996</v>
-      </c>
-      <c r="P58" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q58">
-        <f t="shared" si="17"/>
-        <v>0.25</v>
-      </c>
-      <c r="R58" s="1">
-        <v>5</v>
-      </c>
-      <c r="S58">
-        <v>3</v>
-      </c>
-      <c r="T58">
-        <v>2</v>
-      </c>
-      <c r="U58" s="1">
-        <f>S58/T58</f>
-        <v>1.5</v>
-      </c>
-      <c r="W58" t="s">
-        <v>31</v>
-      </c>
       <c r="X58">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>IF(W58="Bad",0,IF(W58="Bad-N",0,IF(W58="Good-N",1,IF(W58="Good",1,"bruhm"))))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -6259,182 +6263,181 @@
         <v>14</v>
       </c>
       <c r="E59">
-        <f t="shared" si="10"/>
+        <f>D59/B59</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="11"/>
+        <f>D59/(5-C59)</f>
         <v>3.5</v>
       </c>
       <c r="G59">
-        <f t="shared" si="12"/>
+        <f>D59/5</f>
         <v>2.8</v>
       </c>
       <c r="H59">
-        <f t="shared" si="13"/>
+        <f>F59/G59</f>
         <v>1.25</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f>L59/5</f>
+        <v>0.8</v>
       </c>
       <c r="N59">
-        <f t="shared" si="15"/>
-        <v>1.25</v>
+        <f>L59/(5-C59)</f>
+        <v>1</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="16"/>
-        <v>2.8</v>
+        <f>F59/N59</f>
+        <v>3.5</v>
       </c>
       <c r="P59" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="17"/>
-        <v>0.25</v>
+        <f>((P59-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.5625</v>
       </c>
       <c r="R59" s="1">
         <v>3</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U59" s="1">
-        <f>S59/T59</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="X59">
-        <f t="shared" si="18"/>
+        <f>IF(W59="Bad",0,IF(W59="Bad-N",0,IF(W59="Good-N",1,IF(W59="Good",1,"bruhm"))))</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E60">
-        <f t="shared" si="10"/>
-        <v>2.2857142857142856</v>
+        <f>D60/B60</f>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="11"/>
-        <v>3.2</v>
+        <f>D60/(5-C60)</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G60">
-        <f t="shared" si="12"/>
-        <v>3.2</v>
+        <f>D60/5</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H60">
-        <f t="shared" si="13"/>
+        <f>F60/G60</f>
         <v>1</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L60" s="3">
         <v>6</v>
       </c>
       <c r="M60">
-        <f t="shared" si="14"/>
+        <f>L60/5</f>
         <v>1.2</v>
       </c>
       <c r="N60">
-        <f t="shared" si="15"/>
+        <f>L60/(5-C60)</f>
         <v>1.2</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="16"/>
-        <v>2.666666666666667</v>
+        <f>F60/N60</f>
+        <v>3.833333333333333</v>
       </c>
       <c r="P60" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="17"/>
-        <v>0.25</v>
+        <f>((P60-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>0.5625</v>
       </c>
       <c r="R60" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T60">
         <v>2</v>
       </c>
       <c r="U60" s="1">
         <f>S60/T60</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W60" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="X60">
-        <f t="shared" si="18"/>
+        <f>IF(W60="Bad",0,IF(W60="Bad-N",0,IF(W60="Good-N",1,IF(W60="Good",1,"bruhm"))))</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E61">
-        <f t="shared" si="10"/>
+        <f>D61/B61</f>
         <v>2.25</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f>D61/(5-C61)</f>
+        <v>4.5</v>
       </c>
       <c r="G61">
-        <f t="shared" si="12"/>
-        <v>1.8</v>
+        <f>D61/5</f>
+        <v>3.6</v>
       </c>
       <c r="H61">
-        <f t="shared" si="13"/>
-        <v>1.6666666666666665</v>
+        <f>F61/G61</f>
+        <v>1.25</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -6446,45 +6449,46 @@
         <v>1</v>
       </c>
       <c r="L61" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M61">
-        <f t="shared" si="14"/>
-        <v>0.8</v>
+        <f>L61/5</f>
+        <v>1</v>
       </c>
       <c r="N61">
-        <f t="shared" si="15"/>
+        <f>L61/(5-C61)</f>
+        <v>1.25</v>
+      </c>
+      <c r="O61" s="1">
+        <f>F61/N61</f>
+        <v>3.6</v>
+      </c>
+      <c r="P61" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q61">
+        <f>((P61-(MIN(P:P)))^2)/((MAX(P:P)-MIN(P:P))^2)</f>
+        <v>1</v>
+      </c>
+      <c r="R61" s="1">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>4</v>
+      </c>
+      <c r="T61">
+        <v>3</v>
+      </c>
+      <c r="U61" s="1">
+        <f>S61/T61</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O61" s="1">
-        <f t="shared" si="16"/>
-        <v>2.25</v>
-      </c>
-      <c r="P61" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q61">
-        <f t="shared" si="17"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="R61" s="1">
-        <v>1</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61" s="1">
-        <v>0</v>
-      </c>
       <c r="W61" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="X61">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>IF(W61="Bad",0,IF(W61="Bad-N",0,IF(W61="Good-N",1,IF(W61="Good",1,"bruhm"))))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
@@ -6498,7 +6502,7 @@
       </c>
       <c r="N62">
         <f>SUBTOTAL(101,Table2[Block/pday])</f>
-        <v>1.3736111111111107</v>
+        <v>1.3736111111111109</v>
       </c>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
